--- a/KTproj2/Reports/Charts.xlsx
+++ b/KTproj2/Reports/Charts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaiqiYang/Documents/Learning/JavaProj/BitBucketPrivateRepo/KTproj2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaiqiYang/Documents/Learning/JavaProj/BitBucketPrivateRepo/KTproj2/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-160" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Accuacy </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t xml:space="preserve">Kappa </t>
-  </si>
-  <si>
-    <t>F-Measurement</t>
   </si>
   <si>
     <t>ROC area</t>
@@ -53,20 +47,68 @@
     <t>Forest</t>
   </si>
   <si>
-    <t>Positive F M</t>
-  </si>
-  <si>
     <t>Neg FM</t>
   </si>
   <si>
     <t>Neu FM</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Selected Attribute set</t>
+  </si>
+  <si>
+    <t>Positive FM</t>
+  </si>
+  <si>
+    <t>Provided Attribute set</t>
+  </si>
+  <si>
+    <t>Testing time(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision  </t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-Measure</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg. Precision  </t>
+  </si>
+  <si>
+    <t>Avg. Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg. Accuracy </t>
+  </si>
+  <si>
+    <t>Avg. F-Measure</t>
+  </si>
+  <si>
+    <t>Avg. ROC area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,16 +116,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF2E74B5"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -91,14 +166,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9CC2E5"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9CC2E5"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9CC2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9CC2E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9CC2E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,6 +291,64 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Detailed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>four</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>classifiers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -140,11 +363,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -159,8 +382,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -171,24 +395,51 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuacy </c:v>
+                  <c:v>Accuracy </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -206,8 +457,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -231,14 +482,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -287,7 +537,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -298,23 +547,49 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F-Measurement</c:v>
+                  <c:v>F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -333,8 +608,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -358,14 +633,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -414,7 +688,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -425,23 +698,49 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Positive F M</c:v>
+                  <c:v>Positive FM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -460,8 +759,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -485,14 +784,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -541,7 +839,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -558,17 +855,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -587,8 +910,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -612,14 +935,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -668,7 +990,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -685,17 +1006,43 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -714,8 +1061,8 @@
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -739,14 +1086,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -795,7 +1141,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -805,12 +1150,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-2078348128"/>
-        <c:axId val="-2102353520"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-2133826592"/>
+        <c:axId val="-2095231936"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2078348128"/>
+        <c:axId val="-2133826592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,8 +1186,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -852,7 +1198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102353520"/>
+        <c:crossAx val="-2095231936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102353520"/>
+        <c:axId val="-2095231936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.1"/>
@@ -899,8 +1245,8 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -911,7 +1257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078348128"/>
+        <c:crossAx val="-2133826592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -942,8 +1288,8 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1048,11 +1394,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>Sheet1!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuacy </c:v>
+                  <c:v>Precision  </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1149,21 +1495,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Sheet1!$D$7:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.55339</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.620788</c:v>
+                  <c:v>0.647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.626472</c:v>
+                  <c:v>0.651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625051</c:v>
+                  <c:v>0.639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,11 +1521,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Kappa </c:v>
+                  <c:v>Recall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1276,21 +1622,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
+              <c:f>Sheet1!$E$7:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2092</c:v>
+                  <c:v>0.553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3363</c:v>
+                  <c:v>0.621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3513</c:v>
+                  <c:v>0.626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3568</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,11 +1648,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>Sheet1!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F-Measurement</c:v>
+                  <c:v>Accuracy </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1324,6 +1670,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1403,21 +1750,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$10</c:f>
+              <c:f>Sheet1!$F$7:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.504</c:v>
+                  <c:v>0.55339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.593</c:v>
+                  <c:v>0.620788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.604</c:v>
+                  <c:v>0.626472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.608</c:v>
+                  <c:v>0.625051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,11 +1776,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ROC area</c:v>
+                  <c:v>Kappa </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1530,7 +1877,261 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$F$10</c:f>
+              <c:f>Sheet1!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROC area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1560,11 +2161,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2093097568"/>
-        <c:axId val="-2103367360"/>
+        <c:axId val="-2099605904"/>
+        <c:axId val="-2113572832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093097568"/>
+        <c:axId val="-2099605904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +2208,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103367360"/>
+        <c:crossAx val="-2113572832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103367360"/>
+        <c:axId val="-2113572832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -1667,7 +2268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093097568"/>
+        <c:crossAx val="-2099605904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,6 +2301,1344 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>attribute</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>sets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$56:$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Provided Attribute set</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selected Attribute set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$56:$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Provided Attribute set</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Selected Attribute set</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$56:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2145401536"/>
+        <c:axId val="-2097372272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2145401536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097372272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097372272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145401536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>omparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>four</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>classifier</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$71:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$71:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.55339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.620788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.626472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$71:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$71:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROC area</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$71:$B$74</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bayes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Forest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$71:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-2099533808"/>
+        <c:axId val="-2072724480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2099533808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2072724480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2072724480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2099533808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1828,7 +3767,612 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2331,19 +4875,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2351,8 +4895,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2373,7 +4917,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2389,7 +4933,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2397,8 +4941,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2432,36 +4976,62 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2473,30 +5043,33 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2513,20 +5086,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2541,15 +5112,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2560,17 +5131,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2579,17 +5150,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2598,21 +5168,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2631,17 +5195,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2650,17 +5213,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2669,17 +5232,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2689,8 +5251,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2700,7 +5262,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2708,7 +5270,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2717,10 +5279,21 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2728,17 +5301,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2748,27 +5321,26 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2778,8 +5350,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2798,23 +5370,548 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2822,14 +5919,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2838,16 +5929,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>806174</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>176696</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>784088</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
+      <xdr:colOff>452782</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2891,6 +5982,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519044</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44174</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>176695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>44174</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>176695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3162,61 +6313,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:R10"/>
+  <dimension ref="B6:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
       <c r="N6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
+        <v>2.02</v>
+      </c>
+      <c r="D7">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F7">
         <v>0.55339000000000005</v>
       </c>
-      <c r="D7">
-        <v>0.2092</v>
-      </c>
-      <c r="E7">
+      <c r="G7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H7">
         <v>0.504</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>0.67900000000000005</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>0.55339000000000005</v>
@@ -3236,22 +6405,31 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
+        <v>0.24</v>
+      </c>
+      <c r="D8">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.621</v>
+      </c>
+      <c r="F8">
         <v>0.62078800000000001</v>
       </c>
-      <c r="D8">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="E8">
+      <c r="G8">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H8">
         <v>0.59299999999999997</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>0.67900000000000005</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0.62078800000000001</v>
@@ -3271,22 +6449,31 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
+        <v>3.15</v>
+      </c>
+      <c r="D9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.626</v>
+      </c>
+      <c r="F9">
         <v>0.62647200000000003</v>
       </c>
-      <c r="D9">
-        <v>0.3513</v>
-      </c>
-      <c r="E9">
+      <c r="G9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H9">
         <v>0.60399999999999998</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>0.73</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>0.62647200000000003</v>
@@ -3306,22 +6493,31 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
+        <v>217.72</v>
+      </c>
+      <c r="D10">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.625</v>
+      </c>
+      <c r="F10">
         <v>0.62505100000000002</v>
       </c>
-      <c r="D10">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="E10">
+      <c r="G10">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H10">
         <v>0.60799999999999998</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>0.73</v>
       </c>
       <c r="M10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>0.62505100000000002</v>
@@ -3337,6 +6533,371 @@
       </c>
       <c r="R10">
         <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D56">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>0.621</v>
+      </c>
+      <c r="D57">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0.55339000000000005</v>
+      </c>
+      <c r="D71">
+        <v>0.504</v>
+      </c>
+      <c r="E71">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>0.62078800000000001</v>
+      </c>
+      <c r="D72">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E72">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>0.62647200000000003</v>
+      </c>
+      <c r="D73">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="E73">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.62505100000000002</v>
+      </c>
+      <c r="D74">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E74">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>2.02</v>
+      </c>
+      <c r="E102">
+        <v>0.24</v>
+      </c>
+      <c r="F102">
+        <v>3.15</v>
+      </c>
+      <c r="G102">
+        <v>217.72</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E103">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F103">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="G103">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E104">
+        <v>0.621</v>
+      </c>
+      <c r="F104">
+        <v>0.626</v>
+      </c>
+      <c r="G104">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>0.5534</v>
+      </c>
+      <c r="E105">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="F105">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="G105">
+        <v>0.62509999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F106">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G106">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>0.504</v>
+      </c>
+      <c r="E107">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F107">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E108">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F108">
+        <v>0.73</v>
+      </c>
+      <c r="G108">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E113" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="F113" s="1">
+        <v>217.72</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.621</v>
+      </c>
+      <c r="E116" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.5534</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.62509999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>

--- a/KTproj2/Reports/Charts.xlsx
+++ b/KTproj2/Reports/Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t xml:space="preserve">Kappa </t>
   </si>
@@ -35,16 +35,7 @@
     <t>ROC area</t>
   </si>
   <si>
-    <t>Bayes</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>KNN</t>
-  </si>
-  <si>
-    <t>Forest</t>
   </si>
   <si>
     <t>Neg FM</t>
@@ -219,8 +210,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -253,17 +248,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -335,15 +334,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>four</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>classifiers</a:t>
+              <a:t>threeclassifiers</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -391,11 +382,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$6</c:f>
+              <c:f>Sheet1!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy </c:v>
+                  <c:v>F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,7 +430,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -498,19 +488,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$7:$M$10</c:f>
+              <c:f>Sheet1!$M$8:$M$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>KNN</c:v>
                 </c:pt>
               </c:strCache>
@@ -518,21 +505,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$7:$N$10</c:f>
+              <c:f>Sheet1!$O$8:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.55339</c:v>
+                  <c:v>0.593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.620788</c:v>
+                  <c:v>0.604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.626472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.625051</c:v>
+                  <c:v>0.608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,11 +527,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$6</c:f>
+              <c:f>Sheet1!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F-Measure</c:v>
+                  <c:v>Positive FM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,19 +633,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$7:$M$10</c:f>
+              <c:f>Sheet1!$M$8:$M$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>KNN</c:v>
                 </c:pt>
               </c:strCache>
@@ -669,21 +650,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$7:$O$10</c:f>
+              <c:f>Sheet1!$P$8:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.504</c:v>
+                  <c:v>0.456</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.593</c:v>
+                  <c:v>0.435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.608</c:v>
+                  <c:v>0.452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,11 +672,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$6</c:f>
+              <c:f>Sheet1!$Q$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Positive FM</c:v>
+                  <c:v>Neg FM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -800,19 +778,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$7:$M$10</c:f>
+              <c:f>Sheet1!$M$8:$M$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>KNN</c:v>
                 </c:pt>
               </c:strCache>
@@ -820,21 +795,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$7:$P$10</c:f>
+              <c:f>Sheet1!$Q$8:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.322</c:v>
+                  <c:v>0.336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.456</c:v>
+                  <c:v>0.363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.435</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.452</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,11 +817,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$6</c:f>
+              <c:f>Sheet1!$R$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neg FM</c:v>
+                  <c:v>Neu FM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,19 +923,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$7:$M$10</c:f>
+              <c:f>Sheet1!$M$8:$M$10</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>KNN</c:v>
                 </c:pt>
               </c:strCache>
@@ -971,171 +940,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$7:$Q$10</c:f>
+              <c:f>Sheet1!$R$8:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14</c:v>
+                  <c:v>0.321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.336</c:v>
+                  <c:v>0.319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.363</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$R$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Neu FM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$M$7:$M$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Bayes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tree</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Forest</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>KNN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$R$7:$R$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.321</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.319</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0.321</c:v>
                 </c:pt>
               </c:numCache>
@@ -1479,13 +1294,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -1606,13 +1421,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -1734,13 +1549,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -1861,13 +1676,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -1988,13 +1803,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -2115,13 +1930,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -2955,44 +2770,39 @@
                     <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>C</a:t>
+              <a:t>Comparison</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>omparison</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>between</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>four</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>classifier</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3017,9 +2827,9 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3095,9 +2905,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3108,9 +2916,9 @@
                         <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -3150,13 +2958,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -3247,9 +3055,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3260,9 +3066,9 @@
                         <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -3302,13 +3108,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -3399,9 +3205,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3412,9 +3216,9 @@
                         <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" charset="0"/>
+                    <a:ea typeface="Times New Roman" charset="0"/>
+                    <a:cs typeface="Times New Roman" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -3454,13 +3258,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Bayes</c:v>
+                  <c:v>Naïve Bayes</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Tree</c:v>
+                  <c:v>Decision Tree</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Forest</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>KNN</c:v>
@@ -3539,9 +3343,9 @@
                     <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3598,9 +3402,9 @@
                     <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" charset="0"/>
+                <a:ea typeface="Times New Roman" charset="0"/>
+                <a:cs typeface="Times New Roman" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3641,9 +3445,9 @@
                   <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" charset="0"/>
+              <a:ea typeface="Times New Roman" charset="0"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3674,7 +3478,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" charset="0"/>
+          <a:ea typeface="Times New Roman" charset="0"/>
+          <a:cs typeface="Times New Roman" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -6315,53 +6123,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
         <v>13</v>
       </c>
-      <c r="O6" t="s">
-        <v>16</v>
-      </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2.02</v>
@@ -6385,7 +6193,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="M7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>0.55339000000000005</v>
@@ -6405,7 +6213,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0.24</v>
@@ -6429,7 +6237,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="M8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>0.62078800000000001</v>
@@ -6449,7 +6257,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>3.15</v>
@@ -6473,7 +6281,7 @@
         <v>0.73</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>0.62647200000000003</v>
@@ -6493,7 +6301,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>217.72</v>
@@ -6517,7 +6325,7 @@
         <v>0.73</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>0.62505100000000002</v>
@@ -6537,15 +6345,15 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>0.57799999999999996</v>
@@ -6556,7 +6364,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0.621</v>
@@ -6567,10 +6375,10 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
         <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
@@ -6578,7 +6386,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C71">
         <v>0.55339000000000005</v>
@@ -6592,7 +6400,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>0.62078800000000001</v>
@@ -6606,7 +6414,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C73">
         <v>0.62647200000000003</v>
@@ -6620,7 +6428,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>0.62505100000000002</v>
@@ -6634,21 +6442,21 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D102">
         <v>2.02</v>
@@ -6665,7 +6473,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0.54500000000000004</v>
@@ -6682,7 +6490,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0.55300000000000005</v>
@@ -6699,7 +6507,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>0.5534</v>
@@ -6733,7 +6541,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>0.504</v>
@@ -6769,21 +6577,21 @@
     <row r="112" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" s="1">
         <v>2.02</v>
@@ -6817,7 +6625,7 @@
     </row>
     <row r="115" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C115" s="1">
         <v>0.54500000000000004</v>
@@ -6834,7 +6642,7 @@
     </row>
     <row r="116" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C116" s="2">
         <v>0.55300000000000005</v>
@@ -6851,7 +6659,7 @@
     </row>
     <row r="117" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C117" s="1">
         <v>0.5534</v>
@@ -6868,7 +6676,7 @@
     </row>
     <row r="118" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C118" s="2">
         <v>0.504</v>
@@ -6885,7 +6693,7 @@
     </row>
     <row r="119" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C119" s="1">
         <v>0.67900000000000005</v>

--- a/KTproj2/Reports/Charts.xlsx
+++ b/KTproj2/Reports/Charts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="900" yWindow="6080" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,10 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>Neg FM</t>
-  </si>
-  <si>
-    <t>Neu FM</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
     <t>Selected Attribute set</t>
-  </si>
-  <si>
-    <t>Positive FM</t>
   </si>
   <si>
     <t>Provided Attribute set</t>
@@ -93,6 +84,15 @@
   </si>
   <si>
     <t>Avg. ROC area</t>
+  </si>
+  <si>
+    <t>Positive F-Measure</t>
+  </si>
+  <si>
+    <t>Negative F-Measure</t>
+  </si>
+  <si>
+    <t>Neutral F-Measure</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F-Measure</c:v>
+                  <c:v>Avg. F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -531,7 +531,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Positive FM</c:v>
+                  <c:v>Positive F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -676,7 +676,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neg FM</c:v>
+                  <c:v>Negative F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -821,7 +821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Neu FM</c:v>
+                  <c:v>Neutral F-Measure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1024,7 +1024,7 @@
         <c:axId val="-2095231936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.1"/>
+          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6124,52 +6124,52 @@
   <dimension ref="B6:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="R6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2.02</v>
@@ -6193,7 +6193,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N7">
         <v>0.55339000000000005</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0.24</v>
@@ -6237,7 +6237,7 @@
         <v>0.67900000000000005</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>0.62078800000000001</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>3.15</v>
@@ -6281,7 +6281,7 @@
         <v>0.73</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>0.62647200000000003</v>
@@ -6345,15 +6345,15 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>0.57799999999999996</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>0.621</v>
@@ -6375,10 +6375,10 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
         <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>1</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>0.55339000000000005</v>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>0.62078800000000001</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73">
         <v>0.62647200000000003</v>
@@ -6442,13 +6442,13 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
         <v>2</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>2.02</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D103">
         <v>0.54500000000000004</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104">
         <v>0.55300000000000005</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D105">
         <v>0.5534</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>0.504</v>
@@ -6577,13 +6577,13 @@
     <row r="112" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>2</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="113" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1">
         <v>2.02</v>
@@ -6625,7 +6625,7 @@
     </row>
     <row r="115" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1">
         <v>0.54500000000000004</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="116" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C116" s="2">
         <v>0.55300000000000005</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="117" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C117" s="1">
         <v>0.5534</v>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="118" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C118" s="2">
         <v>0.504</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="119" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C119" s="1">
         <v>0.67900000000000005</v>
